--- a/Roseta/Daniel_mimulus_collection_1-386.xlsx
+++ b/Roseta/Daniel_mimulus_collection_1-386.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Resurrection/Roseta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE8BF04-FDDA-2547-B405-015415975021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460D7D58-C55C-E84B-AEF3-FDA81A1C6A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1825,6 +1825,12 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2142,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F389" sqref="F389"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J347" sqref="J347:J349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6952,14 +6958,14 @@
       <c r="I123" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J123" s="79">
+      <c r="J123" s="97">
         <v>1</v>
       </c>
       <c r="K123" s="24"/>
       <c r="L123" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="M123" s="16">
+      <c r="M123" s="80">
         <v>1</v>
       </c>
       <c r="N123" s="16">
@@ -6994,7 +7000,7 @@
       <c r="I124" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="J124" s="16">
+      <c r="J124" s="80">
         <v>1</v>
       </c>
       <c r="K124" s="16">
@@ -7003,7 +7009,7 @@
       <c r="L124" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="M124" s="79">
+      <c r="M124" s="24">
         <v>1</v>
       </c>
       <c r="N124" s="24">
@@ -7074,7 +7080,7 @@
       <c r="I126" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="J126" s="80">
+      <c r="J126" s="98">
         <v>1</v>
       </c>
       <c r="K126" s="16">
@@ -15805,7 +15811,7 @@
       <c r="I342" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="J342" s="16">
+      <c r="J342" s="80">
         <v>1</v>
       </c>
       <c r="K342" s="16">
@@ -15851,7 +15857,7 @@
       <c r="I343" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="J343" s="16">
+      <c r="J343" s="80">
         <v>1</v>
       </c>
       <c r="K343" s="16">
@@ -16027,7 +16033,7 @@
       <c r="I347" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="J347" s="16">
+      <c r="J347" s="80">
         <v>1</v>
       </c>
       <c r="K347" s="16">
@@ -16115,7 +16121,7 @@
       <c r="I349" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="J349" s="16">
+      <c r="J349" s="80">
         <v>1</v>
       </c>
       <c r="K349" s="16">
